--- a/nucprak11/data1.xlsx
+++ b/nucprak11/data1.xlsx
@@ -55,16 +55,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,17 +134,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -165,10 +168,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1050</v>
+        <v>1075</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>480</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -176,10 +179,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1043</v>
+        <v>1109</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>523</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -187,10 +190,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1236</v>
+        <v>1105</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>648</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,10 +201,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>593</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -209,10 +212,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>1488</v>
+        <v>1117</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>783</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,10 +223,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>1464</v>
+        <v>1155</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>804</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -231,10 +234,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1684</v>
+        <v>1100</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>911</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -242,10 +245,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>2179</v>
+        <v>1153</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>1236</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,10 +256,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>2624</v>
+        <v>1107</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>1608</v>
+        <v>1787</v>
       </c>
     </row>
   </sheetData>
